--- a/Hydrophones/Calibration/manual_calibrations_combined.xlsx
+++ b/Hydrophones/Calibration/manual_calibrations_combined.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Hydrophones\Calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\La_Jara\Hydrophones\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CB543D-2C76-446F-88E0-B7F17787D329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E213428-BFCA-4AB6-819C-0A77F1EC8A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="H1_combined" sheetId="1" r:id="rId1"/>
+    <sheet name="floods" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Particle #</t>
   </si>
@@ -51,6 +52,57 @@
   </si>
   <si>
     <t>Aprox Time End</t>
+  </si>
+  <si>
+    <t>Max Amplitude</t>
+  </si>
+  <si>
+    <t>Flood 1</t>
+  </si>
+  <si>
+    <t>Flood 2</t>
+  </si>
+  <si>
+    <t>Flood 3</t>
+  </si>
+  <si>
+    <t>Flood 4</t>
+  </si>
+  <si>
+    <t>Flood 5</t>
+  </si>
+  <si>
+    <t>Pipe</t>
+  </si>
+  <si>
+    <t>Hydrophone</t>
+  </si>
+  <si>
+    <t>Max Size</t>
+  </si>
+  <si>
+    <t>Tracers</t>
+  </si>
+  <si>
+    <t>Bedload</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>Flood 6</t>
+  </si>
+  <si>
+    <t>Flood 7</t>
+  </si>
+  <si>
+    <t>Flood 8</t>
+  </si>
+  <si>
+    <t>Flood 9</t>
   </si>
 </sst>
 </file>
@@ -98,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -113,6 +165,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -316,10 +371,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$38</c:f>
+              <c:f>H1_combined!$B$2:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>128</c:v>
                 </c:pt>
@@ -426,6 +481,15 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
@@ -433,10 +497,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$37</c:f>
+              <c:f>H1_combined!$E$2:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0.59</c:v>
                 </c:pt>
@@ -544,6 +608,15 @@
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00">
                   <c:v>0.21579999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.34470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.3699999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.35489999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -585,7 +658,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:f>H1_combined!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -666,7 +739,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$25</c:f>
+              <c:f>H1_combined!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -782,7 +855,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$B$37</c:f>
+              <c:f>H1_combined!$B$26:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -827,7 +900,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$26:$E$37</c:f>
+              <c:f>H1_combined!$E$26:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -874,6 +947,81 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7F7C-4D93-9FF8-AE77C53E1B22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Floods</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>H1_combined!$B$38:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>H1_combined!$E$38:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.34470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3699999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35489999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BD30-4069-831A-EF3CF624922C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1179,6 +1327,392 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR" sz="1100"/>
+              <a:t>H1 Flood Calibration - Impact Pipes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.34870538057742784"/>
+                  <c:y val="0.17054935841353164"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>floods!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>floods!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0.34470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3699999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35489999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F6FC-4426-80EC-39C1B2E9FDFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1128790400"/>
+        <c:axId val="1128790880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1128790400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1128790880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1128790880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1128790400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -1216,7 +1750,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1753,6 +2843,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA5BC6B-7FFA-7404-10B4-6C5ADDF9CCC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2096B00F-A438-8A09-D7D6-90C62CF2F74D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2036,24 +3167,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2072,7 +3203,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>167</v>
       </c>
@@ -2091,7 +3222,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>6</v>
       </c>
@@ -2110,7 +3241,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>8</v>
       </c>
@@ -2129,7 +3260,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>168</v>
       </c>
@@ -2148,7 +3279,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>150</v>
       </c>
@@ -2167,7 +3298,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>11</v>
       </c>
@@ -2186,7 +3317,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>22</v>
       </c>
@@ -2205,7 +3336,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>152</v>
       </c>
@@ -2224,7 +3355,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>12</v>
       </c>
@@ -2243,7 +3374,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>96</v>
       </c>
@@ -2262,7 +3393,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>101</v>
       </c>
@@ -2281,7 +3412,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>24</v>
       </c>
@@ -2300,7 +3431,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>107</v>
       </c>
@@ -2319,7 +3450,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>162</v>
       </c>
@@ -2338,7 +3469,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>159</v>
       </c>
@@ -2357,7 +3488,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>35</v>
       </c>
@@ -2376,7 +3507,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>69</v>
       </c>
@@ -2395,7 +3526,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>85</v>
       </c>
@@ -2414,7 +3545,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>61</v>
       </c>
@@ -2433,7 +3564,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>52</v>
       </c>
@@ -2452,7 +3583,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>165</v>
       </c>
@@ -2471,7 +3602,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>166</v>
       </c>
@@ -2490,7 +3621,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>53</v>
       </c>
@@ -2509,7 +3640,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>45</v>
       </c>
@@ -2528,7 +3659,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -2545,7 +3676,7 @@
         <v>2.8199999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>1.2</v>
       </c>
@@ -2562,7 +3693,7 @@
         <v>2.5399999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>1.3</v>
       </c>
@@ -2579,7 +3710,7 @@
         <v>6.2899999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>2.1</v>
       </c>
@@ -2596,7 +3727,7 @@
         <v>9.8299999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>2.2000000000000002</v>
       </c>
@@ -2613,7 +3744,7 @@
         <v>0.1047</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -2630,7 +3761,7 @@
         <v>4.3900000000000002E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>3.1</v>
       </c>
@@ -2647,7 +3778,7 @@
         <v>0.32800000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>3.2</v>
       </c>
@@ -2664,7 +3795,7 @@
         <v>0.18690000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>3.3</v>
       </c>
@@ -2681,7 +3812,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>4.0999999999999996</v>
       </c>
@@ -2698,7 +3829,7 @@
         <v>0.29139999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>4.2</v>
       </c>
@@ -2715,7 +3846,7 @@
         <v>8.1199999999999994E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>4.3</v>
       </c>
@@ -2730,10 +3861,203 @@
       </c>
       <c r="E37" s="5">
         <v>0.21579999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1">
+        <v>90</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.34470000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45</v>
+      </c>
+      <c r="E39" s="1">
+        <v>5.3699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="1">
+        <v>90</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.35489999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE41D157-6BBB-47F7-AC96-7DF3592F224F}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.34470000000000001</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.35489999999999999</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Hydrophones/Calibration/manual_calibrations_combined.xlsx
+++ b/Hydrophones/Calibration/manual_calibrations_combined.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\La_Jara\Hydrophones\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E213428-BFCA-4AB6-819C-0A77F1EC8A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001E45AA-2BD4-4237-8E43-1CEA21191FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="H1_combined" sheetId="1" r:id="rId1"/>
-    <sheet name="floods" sheetId="2" r:id="rId2"/>
+    <sheet name="H1_impact_pipe" sheetId="1" r:id="rId1"/>
+    <sheet name="H1_microphone" sheetId="3" r:id="rId2"/>
+    <sheet name="floods" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>Particle #</t>
   </si>
@@ -52,9 +53,6 @@
   </si>
   <si>
     <t>Aprox Time End</t>
-  </si>
-  <si>
-    <t>Max Amplitude</t>
   </si>
   <si>
     <t>Flood 1</t>
@@ -104,11 +102,23 @@
   <si>
     <t>Flood 9</t>
   </si>
+  <si>
+    <t>Raw Max A</t>
+  </si>
+  <si>
+    <t>Env Max Amplitude</t>
+  </si>
+  <si>
+    <t>Raw Max Amplitude</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,10 +174,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -226,7 +236,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs Particle Size</a:t>
+              <a:t> vs Particle Size - Envelope </a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -335,8 +345,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.38383558452060335"/>
-                  <c:y val="-8.0484419854682937E-2"/>
+                  <c:x val="-0.40075865039884168"/>
+                  <c:y val="-0.17195811755889723"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -371,7 +381,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>H1_combined!$B$2:$B$40</c:f>
+              <c:f>H1_impact_pipe!$B$2:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -497,126 +507,117 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>H1_combined!$E$2:$E$40</c:f>
+              <c:f>H1_impact_pipe!$F$2:$F$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.59</c:v>
+                  <c:v>8.3199999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26</c:v>
+                  <c:v>3.7100000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74</c:v>
+                  <c:v>0.10489999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>4.0300000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>2.86E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2</c:v>
+                  <c:v>2.86E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21</c:v>
+                  <c:v>3.0099999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33</c:v>
+                  <c:v>4.6800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.21</c:v>
+                  <c:v>2.9499999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1</c:v>
+                  <c:v>1.4800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.33</c:v>
+                  <c:v>4.5900000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>1.9800000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.11</c:v>
+                  <c:v>1.54E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.01</c:v>
+                  <c:v>1.6999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>1.03E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.03</c:v>
+                  <c:v>4.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.04</c:v>
+                  <c:v>5.8999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>1.06E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.04</c:v>
+                  <c:v>6.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.04</c:v>
+                  <c:v>5.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.01</c:v>
+                  <c:v>1.8E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.02</c:v>
+                  <c:v>2.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0.00">
-                  <c:v>2.8199999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="0.00">
-                  <c:v>2.5399999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="0.00">
-                  <c:v>6.2899999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="0.00">
-                  <c:v>9.8299999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="0.00">
-                  <c:v>0.1047</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="0.00">
-                  <c:v>4.3900000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="0.00">
-                  <c:v>0.32800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="0.00">
-                  <c:v>0.18690000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="0.00">
-                  <c:v>0.22800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="0.00">
-                  <c:v>0.29139999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="0.00">
-                  <c:v>8.1199999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="0.00">
-                  <c:v>0.21579999999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.34470000000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.3699999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.35489999999999999</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.6300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.64E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.1200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0499999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -658,7 +659,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>H1_combined!$B$2:$B$25</c:f>
+              <c:f>H1_impact_pipe!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -739,81 +740,81 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>H1_combined!$E$2:$E$25</c:f>
+              <c:f>H1_impact_pipe!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.59</c:v>
+                  <c:v>8.3199999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26</c:v>
+                  <c:v>3.7100000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74</c:v>
+                  <c:v>0.10489999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>4.0300000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>2.86E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2</c:v>
+                  <c:v>2.86E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21</c:v>
+                  <c:v>3.0099999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33</c:v>
+                  <c:v>4.6800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.21</c:v>
+                  <c:v>2.9499999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1</c:v>
+                  <c:v>1.4800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.33</c:v>
+                  <c:v>4.5900000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>1.9800000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.11</c:v>
+                  <c:v>1.54E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.01</c:v>
+                  <c:v>1.6999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>1.03E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.03</c:v>
+                  <c:v>4.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.04</c:v>
+                  <c:v>5.8999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>1.06E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.04</c:v>
+                  <c:v>6.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.04</c:v>
+                  <c:v>5.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.01</c:v>
+                  <c:v>1.8E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.02</c:v>
+                  <c:v>2.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.03</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -855,7 +856,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>H1_combined!$B$26:$B$37</c:f>
+              <c:f>H1_impact_pipe!$B$26:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -900,45 +901,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>H1_combined!$E$26:$E$37</c:f>
+              <c:f>H1_impact_pipe!$F$26:$F$37</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2.8199999999999999E-2</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5399999999999999E-2</c:v>
+                  <c:v>3.5999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2899999999999998E-2</c:v>
+                  <c:v>8.8999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.8299999999999998E-2</c:v>
+                  <c:v>1.3899999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1047</c:v>
+                  <c:v>1.4800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3900000000000002E-2</c:v>
+                  <c:v>6.1999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32800000000000001</c:v>
+                  <c:v>4.6300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18690000000000001</c:v>
+                  <c:v>2.64E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22800000000000001</c:v>
+                  <c:v>3.2199999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29139999999999999</c:v>
+                  <c:v>4.1200000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.1199999999999994E-2</c:v>
+                  <c:v>1.15E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.21579999999999999</c:v>
+                  <c:v>3.0499999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,7 +985,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>H1_combined!$B$38:$B$40</c:f>
+              <c:f>H1_impact_pipe!$B$38:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1002,19 +1003,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>H1_combined!$E$38:$E$40</c:f>
+              <c:f>H1_impact_pipe!$F$38:$F$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.34470000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.3699999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.35489999999999999</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1348,6 +1340,3304 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Amax</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Particle Size - Raw Signal</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.40075865039884168"/>
+                  <c:y val="-0.17195811755889723"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>H1_impact_pipe!$B$2:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>H1_impact_pipe!$E$2:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>7.0800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.07E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.06E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.46E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.5699999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.5899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.6200000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.93E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9C0A-40D2-90EE-82EF41D8C6A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>H1_impact_pipe!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>H1_impact_pipe!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>7.0800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.07E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.06E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9C0A-40D2-90EE-82EF41D8C6A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>H1_impact_pipe!$B$26:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>H1_impact_pipe!$E$26:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.46E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5699999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6200000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.93E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9C0A-40D2-90EE-82EF41D8C6A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Floods</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>H1_impact_pipe!$B$38:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>H1_impact_pipe!$F$38:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9C0A-40D2-90EE-82EF41D8C6A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="299639312"/>
+        <c:axId val="299627312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="299639312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dmax</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (mm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299627312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="299627312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Max Amplitude</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299639312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Amax</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Particle Size - Envelope</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>total</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="34"/>
+            <c:marker>
+              <c:symbol val="dot"/>
+              <c:size val="3"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-8296-462A-ABE5-EB489BA7E5EA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.40494584388118088"/>
+                  <c:y val="-0.11203913931996033"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>H1_microphone!$B$2:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>H1_microphone!$F$2:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.42620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7165999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.181</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43819999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6635</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5174000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1636</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.31130000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.6899999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.42749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.4899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1132</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.0400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.1600000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4699999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.2799999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0000">
+                  <c:v>0.43109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0000">
+                  <c:v>1.0295000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.0000">
+                  <c:v>1.4967999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.0000">
+                  <c:v>2.3043999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.0000">
+                  <c:v>1.3107</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.0000">
+                  <c:v>0.32479999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.0000">
+                  <c:v>0.85760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.0000">
+                  <c:v>0.92669999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.0000">
+                  <c:v>1.3308</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.0000">
+                  <c:v>1.3686</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.0000">
+                  <c:v>2.8416000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.0000">
+                  <c:v>2.0783999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8296-462A-ABE5-EB489BA7E5EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Movement 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>H1_microphone!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>H1_microphone!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.42620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7165999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.181</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43819999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6635</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5174000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1636</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.31130000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.6899999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.42749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.4899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1132</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.0400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.1600000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4699999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.2799999999999994E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8296-462A-ABE5-EB489BA7E5EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Movement 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>H1_microphone!$B$26:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>H1_microphone!$F$26:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.43109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0295000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4967999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3043999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32479999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92669999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3308</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3686</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8416000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0783999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8296-462A-ABE5-EB489BA7E5EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Floods</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>H1_microphone!$B$38:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>H1_microphone!$F$38:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8296-462A-ABE5-EB489BA7E5EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="299639312"/>
+        <c:axId val="299627312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="299639312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dmax</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (mm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299627312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="299627312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Max Amplitude</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299639312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Amax</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Particle Size - Raw Signal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.9763524341177411E-2"/>
+                  <c:y val="0.52354684188725364"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>H1_microphone!$B$2:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>H1_microphone!$E$2:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.41399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45229999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2351</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1285</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.6100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34360000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.1900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1132</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.8500000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.4499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.2200000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.39240000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.32050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-48AB-486F-A191-0594B33CE37B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>H1_microphone!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>H1_microphone!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.41399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45229999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2351</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1285</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.6100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34360000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.1900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1132</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.8500000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.4499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.2200000000000004E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-48AB-486F-A191-0594B33CE37B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>H1_microphone!$B$26:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>H1_microphone!$E$26:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.39240000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-48AB-486F-A191-0594B33CE37B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Floods</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>H1_microphone!$B$38:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>H1_microphone!$F$38:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-48AB-486F-A191-0594B33CE37B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="299639312"/>
+        <c:axId val="299627312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="299639312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dmax</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (mm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299627312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="299627312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Max Amplitude</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299639312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -1443,8 +4733,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.34870538057742784"/>
-                  <c:y val="0.17054935841353164"/>
+                  <c:x val="-0.26419688736091085"/>
+                  <c:y val="5.2768891144978696E-4"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1479,7 +4769,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>floods!$D$3:$D$7</c:f>
+              <c:f>floods!$F$3:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1507,14 +4797,20 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.0800000000000002E-2</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34470000000000001</c:v>
+                  <c:v>4.87E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3699999999999998E-2</c:v>
+                  <c:v>6.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35489999999999999</c:v>
+                  <c:v>4.9599999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1751,6 +5047,117 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2822,20 +6229,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>147636</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2860,6 +7815,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>185739</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D37D4A-1631-467C-8E77-93EF18065DAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2868,15 +7861,96 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
+      <xdr:colOff>285749</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:rowOff>147636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90FCD92E-0531-4CE4-83DB-1F1E930E9E9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>128589</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F36F83AD-6BDA-4803-8201-ABA650A02E66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>169545</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>436245</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3167,24 +8241,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3198,12 +8273,15 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>167</v>
       </c>
@@ -3217,12 +8295,15 @@
         <v>48</v>
       </c>
       <c r="E2" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>8.3199999999999996E-2</v>
+      </c>
       <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>6</v>
       </c>
@@ -3236,12 +8317,15 @@
         <v>90</v>
       </c>
       <c r="E3" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3.7100000000000001E-2</v>
+      </c>
       <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>8</v>
       </c>
@@ -3255,12 +8339,15 @@
         <v>125</v>
       </c>
       <c r="E4" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.10489999999999999</v>
+      </c>
       <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>168</v>
       </c>
@@ -3274,12 +8361,15 @@
         <v>160</v>
       </c>
       <c r="E5" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4.0300000000000002E-2</v>
+      </c>
       <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>150</v>
       </c>
@@ -3293,12 +8383,15 @@
         <v>199</v>
       </c>
       <c r="E6" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.86E-2</v>
+      </c>
       <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>11</v>
       </c>
@@ -3312,12 +8405,15 @@
         <v>234</v>
       </c>
       <c r="E7" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2.86E-2</v>
+      </c>
       <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>22</v>
       </c>
@@ -3331,12 +8427,15 @@
         <v>275</v>
       </c>
       <c r="E8" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3.0099999999999998E-2</v>
+      </c>
       <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>152</v>
       </c>
@@ -3350,12 +8449,15 @@
         <v>320</v>
       </c>
       <c r="E9" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4.6800000000000001E-2</v>
+      </c>
       <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>12</v>
       </c>
@@ -3369,12 +8471,15 @@
         <v>360</v>
       </c>
       <c r="E10" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2.9499999999999998E-2</v>
+      </c>
       <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>96</v>
       </c>
@@ -3388,12 +8493,15 @@
         <v>400</v>
       </c>
       <c r="E11" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>101</v>
       </c>
@@ -3407,12 +8515,15 @@
         <v>438</v>
       </c>
       <c r="E12" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.4800000000000001E-2</v>
+      </c>
       <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>24</v>
       </c>
@@ -3426,12 +8537,15 @@
         <v>478</v>
       </c>
       <c r="E13" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="G13" s="1"/>
+        <v>4.07E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4.5900000000000003E-2</v>
+      </c>
       <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>107</v>
       </c>
@@ -3445,12 +8559,15 @@
         <v>520</v>
       </c>
       <c r="E14" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.9800000000000002E-2</v>
+      </c>
       <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>162</v>
       </c>
@@ -3464,12 +8581,15 @@
         <v>560</v>
       </c>
       <c r="E15" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.54E-2</v>
+      </c>
       <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>159</v>
       </c>
@@ -3483,12 +8603,15 @@
         <v>610</v>
       </c>
       <c r="E16" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.6999999999999999E-3</v>
+      </c>
       <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>35</v>
       </c>
@@ -3502,12 +8625,15 @@
         <v>648</v>
       </c>
       <c r="E17" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.03E-2</v>
+      </c>
       <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>69</v>
       </c>
@@ -3521,12 +8647,15 @@
         <v>689</v>
       </c>
       <c r="E18" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="G18" s="1"/>
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4.7000000000000002E-3</v>
+      </c>
       <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>85</v>
       </c>
@@ -3540,12 +8669,15 @@
         <v>736</v>
       </c>
       <c r="E19" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5.8999999999999999E-3</v>
+      </c>
       <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>61</v>
       </c>
@@ -3559,12 +8691,15 @@
         <v>788</v>
       </c>
       <c r="E20" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>1.06E-2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.06E-2</v>
+      </c>
       <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>52</v>
       </c>
@@ -3578,12 +8713,15 @@
         <v>825</v>
       </c>
       <c r="E21" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="G21" s="1"/>
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="F21" s="2">
+        <v>6.3E-3</v>
+      </c>
       <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>165</v>
       </c>
@@ -3597,12 +8735,15 @@
         <v>875</v>
       </c>
       <c r="E22" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5.1000000000000004E-3</v>
+      </c>
       <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>166</v>
       </c>
@@ -3616,12 +8757,15 @@
         <v>930</v>
       </c>
       <c r="E23" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>1.8E-3</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1.8E-3</v>
+      </c>
       <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>53</v>
       </c>
@@ -3635,12 +8779,15 @@
         <v>985</v>
       </c>
       <c r="E24" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2.3E-3</v>
+      </c>
       <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45</v>
       </c>
@@ -3654,12 +8801,15 @@
         <v>1030</v>
       </c>
       <c r="E25" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F25" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -3672,11 +8822,14 @@
       <c r="D26" s="4">
         <v>70</v>
       </c>
-      <c r="E26" s="5">
-        <v>2.8199999999999999E-2</v>
+      <c r="E26" s="4">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>1.2</v>
       </c>
@@ -3689,11 +8842,14 @@
       <c r="D27" s="4">
         <v>90</v>
       </c>
-      <c r="E27" s="5">
-        <v>2.5399999999999999E-2</v>
+      <c r="E27" s="4">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>1.3</v>
       </c>
@@ -3706,11 +8862,14 @@
       <c r="D28" s="4">
         <v>100</v>
       </c>
-      <c r="E28" s="5">
-        <v>6.2899999999999998E-2</v>
+      <c r="E28" s="4">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="F28" s="3">
+        <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2.1</v>
       </c>
@@ -3723,11 +8882,14 @@
       <c r="D29" s="4">
         <v>140</v>
       </c>
-      <c r="E29" s="5">
-        <v>9.8299999999999998E-2</v>
+      <c r="E29" s="4">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2.2000000000000002</v>
       </c>
@@ -3740,11 +8902,14 @@
       <c r="D30" s="4">
         <v>155</v>
       </c>
-      <c r="E30" s="5">
-        <v>0.1047</v>
+      <c r="E30" s="4">
+        <v>1.46E-2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -3757,11 +8922,14 @@
       <c r="D31" s="4">
         <v>170</v>
       </c>
-      <c r="E31" s="5">
-        <v>4.3900000000000002E-2</v>
+      <c r="E31" s="4">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="F31" s="3">
+        <v>6.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>3.1</v>
       </c>
@@ -3774,11 +8942,14 @@
       <c r="D32" s="4">
         <v>210</v>
       </c>
-      <c r="E32" s="5">
-        <v>0.32800000000000001</v>
+      <c r="E32" s="4">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4.6300000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>3.2</v>
       </c>
@@ -3791,11 +8962,14 @@
       <c r="D33" s="4">
         <v>230</v>
       </c>
-      <c r="E33" s="5">
-        <v>0.18690000000000001</v>
+      <c r="E33" s="4">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2.64E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>3.3</v>
       </c>
@@ -3808,11 +8982,14 @@
       <c r="D34" s="4">
         <v>250</v>
       </c>
-      <c r="E34" s="5">
-        <v>0.22800000000000001</v>
+      <c r="E34" s="4">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3.2199999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>4.0999999999999996</v>
       </c>
@@ -3825,11 +9002,14 @@
       <c r="D35" s="4">
         <v>285</v>
       </c>
-      <c r="E35" s="5">
-        <v>0.29139999999999999</v>
+      <c r="E35" s="4">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4.1200000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>4.2</v>
       </c>
@@ -3842,11 +9022,14 @@
       <c r="D36" s="4">
         <v>310</v>
       </c>
-      <c r="E36" s="5">
-        <v>8.1199999999999994E-2</v>
+      <c r="E36" s="4">
+        <v>1.01E-2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1.15E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>4.3</v>
       </c>
@@ -3859,42 +9042,39 @@
       <c r="D37" s="4">
         <v>330</v>
       </c>
-      <c r="E37" s="5">
-        <v>0.21579999999999999</v>
+      <c r="E37" s="4">
+        <v>2.93E-2</v>
+      </c>
+      <c r="F37" s="3">
+        <v>3.0499999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38" s="1">
         <v>90</v>
       </c>
-      <c r="E38" s="1">
-        <v>0.34470000000000001</v>
-      </c>
+      <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" s="1">
         <v>45</v>
       </c>
-      <c r="E39" s="1">
-        <v>5.3699999999999998E-2</v>
-      </c>
+      <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40" s="1">
         <v>90</v>
       </c>
-      <c r="E40" s="1">
-        <v>0.35489999999999999</v>
-      </c>
+      <c r="F40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3903,158 +9083,1111 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A895ED37-C7AA-43E7-9672-0D164BBA90A9}">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>167</v>
+      </c>
+      <c r="B2" s="2">
+        <v>128</v>
+      </c>
+      <c r="C2" s="2">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.42620000000000002</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>128</v>
+      </c>
+      <c r="C3" s="2">
+        <v>80</v>
+      </c>
+      <c r="D3" s="2">
+        <v>90</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>128</v>
+      </c>
+      <c r="C4" s="2">
+        <v>115</v>
+      </c>
+      <c r="D4" s="2">
+        <v>125</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.7165999999999999</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>168</v>
+      </c>
+      <c r="B5" s="2">
+        <v>128</v>
+      </c>
+      <c r="C5" s="2">
+        <v>150</v>
+      </c>
+      <c r="D5" s="2">
+        <v>160</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2.181</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>150</v>
+      </c>
+      <c r="B6" s="2">
+        <v>90</v>
+      </c>
+      <c r="C6" s="2">
+        <v>194</v>
+      </c>
+      <c r="D6" s="2">
+        <v>199</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.19889999999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.21290000000000001</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>90</v>
+      </c>
+      <c r="C7" s="2">
+        <v>226</v>
+      </c>
+      <c r="D7" s="2">
+        <v>234</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.43659999999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.43819999999999998</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
+        <v>90</v>
+      </c>
+      <c r="C8" s="2">
+        <v>265</v>
+      </c>
+      <c r="D8" s="2">
+        <v>275</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.45229999999999998</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.6008</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>152</v>
+      </c>
+      <c r="B9" s="2">
+        <v>90</v>
+      </c>
+      <c r="C9" s="2">
+        <v>310</v>
+      </c>
+      <c r="D9" s="2">
+        <v>320</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.6635</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>64</v>
+      </c>
+      <c r="C10" s="2">
+        <v>357</v>
+      </c>
+      <c r="D10" s="2">
+        <v>360</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.2351</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.25240000000000001</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>96</v>
+      </c>
+      <c r="B11" s="2">
+        <v>64</v>
+      </c>
+      <c r="C11" s="2">
+        <v>392</v>
+      </c>
+      <c r="D11" s="2">
+        <v>400</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.39989999999999998</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.48759999999999998</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>101</v>
+      </c>
+      <c r="B12" s="2">
+        <v>64</v>
+      </c>
+      <c r="C12" s="2">
+        <v>432</v>
+      </c>
+      <c r="D12" s="2">
+        <v>438</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.1285</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2">
+        <v>64</v>
+      </c>
+      <c r="C13" s="2">
+        <v>468</v>
+      </c>
+      <c r="D13" s="2">
+        <v>478</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.5174000000000001</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>107</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2">
+        <v>515</v>
+      </c>
+      <c r="D14" s="2">
+        <v>520</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.16109999999999999</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.1636</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>162</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2">
+        <v>550</v>
+      </c>
+      <c r="D15" s="2">
+        <v>560</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.29780000000000001</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.31130000000000002</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>159</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2">
+        <v>595</v>
+      </c>
+      <c r="D16" s="2">
+        <v>610</v>
+      </c>
+      <c r="E16" s="2">
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2">
+        <v>642</v>
+      </c>
+      <c r="D17" s="2">
+        <v>648</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.41970000000000002</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>69</v>
+      </c>
+      <c r="B18" s="2">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2">
+        <v>685</v>
+      </c>
+      <c r="D18" s="2">
+        <v>689</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.34360000000000002</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>85</v>
+      </c>
+      <c r="B19" s="2">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2">
+        <v>730</v>
+      </c>
+      <c r="D19" s="2">
+        <v>736</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2">
+        <v>32</v>
+      </c>
+      <c r="C20" s="2">
+        <v>782</v>
+      </c>
+      <c r="D20" s="2">
+        <v>788</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.1132</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.1132</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2">
+        <v>32</v>
+      </c>
+      <c r="C21" s="2">
+        <v>820</v>
+      </c>
+      <c r="D21" s="2">
+        <v>825</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>165</v>
+      </c>
+      <c r="B22" s="2">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2">
+        <v>865</v>
+      </c>
+      <c r="D22" s="2">
+        <v>875</v>
+      </c>
+      <c r="E22" s="2">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>166</v>
+      </c>
+      <c r="B23" s="2">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2">
+        <v>920</v>
+      </c>
+      <c r="D23" s="2">
+        <v>930</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>53</v>
+      </c>
+      <c r="B24" s="2">
+        <v>22.6</v>
+      </c>
+      <c r="C24" s="2">
+        <v>970</v>
+      </c>
+      <c r="D24" s="2">
+        <v>985</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5.4300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2">
+        <v>22.6</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1020</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1030</v>
+      </c>
+      <c r="E25" s="2">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>9.2799999999999994E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B26" s="3">
+        <v>32</v>
+      </c>
+      <c r="C26" s="4">
+        <v>50</v>
+      </c>
+      <c r="D26" s="4">
+        <v>70</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.39240000000000003</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.43109999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="B27" s="3">
+        <v>32</v>
+      </c>
+      <c r="C27" s="4">
+        <v>70</v>
+      </c>
+      <c r="D27" s="4">
+        <v>90</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1.0295000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="B28" s="3">
+        <v>32</v>
+      </c>
+      <c r="C28" s="4">
+        <v>90</v>
+      </c>
+      <c r="D28" s="4">
+        <v>100</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1.4967999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45</v>
+      </c>
+      <c r="C29" s="4">
+        <v>120</v>
+      </c>
+      <c r="D29" s="4">
+        <v>140</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F29" s="6">
+        <v>2.3043999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45</v>
+      </c>
+      <c r="C30" s="4">
+        <v>140</v>
+      </c>
+      <c r="D30" s="4">
+        <v>155</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1.3107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45</v>
+      </c>
+      <c r="C31" s="4">
+        <v>160</v>
+      </c>
+      <c r="D31" s="4">
+        <v>170</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.32050000000000001</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.32479999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="B32" s="3">
+        <v>64</v>
+      </c>
+      <c r="C32" s="4">
+        <v>190</v>
+      </c>
+      <c r="D32" s="4">
+        <v>210</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0.85760000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="B33" s="3">
+        <v>64</v>
+      </c>
+      <c r="C33" s="4">
+        <v>215</v>
+      </c>
+      <c r="D33" s="4">
+        <v>230</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0.92669999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="B34" s="3">
+        <v>64</v>
+      </c>
+      <c r="C34" s="4">
+        <v>230</v>
+      </c>
+      <c r="D34" s="4">
+        <v>250</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1.3308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B35" s="3">
+        <v>90</v>
+      </c>
+      <c r="C35" s="4">
+        <v>270</v>
+      </c>
+      <c r="D35" s="4">
+        <v>285</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1.3686</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="B36" s="3">
+        <v>90</v>
+      </c>
+      <c r="C36" s="4">
+        <v>290</v>
+      </c>
+      <c r="D36" s="4">
+        <v>310</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F36" s="6">
+        <v>2.8416000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="B37" s="3">
+        <v>90</v>
+      </c>
+      <c r="C37" s="4">
+        <v>310</v>
+      </c>
+      <c r="D37" s="4">
+        <v>330</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F37" s="6">
+        <v>2.0783999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1">
+        <v>90</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1">
+        <v>90</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE41D157-6BBB-47F7-AC96-7DF3592F224F}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="B3" s="1">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.17879999999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.6488</v>
+      </c>
+      <c r="F3" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4.87E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.87E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.6674000000000002</v>
+      </c>
+      <c r="F4" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.6E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.2389999999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.9089</v>
+      </c>
+      <c r="F6" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.5485</v>
+      </c>
+      <c r="F7" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6"/>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.79430000000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.4293999999999998</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1">
-        <v>90</v>
-      </c>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.34470000000000001</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>90</v>
-      </c>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.79430000000000001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.61E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.1450999999999998</v>
+      </c>
+      <c r="G13" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.35489999999999999</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B14" s="1">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.1079</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hydrophones/Calibration/manual_calibrations_combined.xlsx
+++ b/Hydrophones/Calibration/manual_calibrations_combined.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\La_Jara\Hydrophones\Calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Hydrophones\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001E45AA-2BD4-4237-8E43-1CEA21191FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B726B842-1E09-4275-A6ED-809960B0F1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H1_impact_pipe" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
   <si>
     <t>Particle #</t>
   </si>
@@ -117,7 +117,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -160,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,7 +177,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -497,10 +500,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -618,6 +621,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>3.0499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.87E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.6E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -954,9 +963,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:v>Floods</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -985,17 +991,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>H1_impact_pipe!$B$38:$B$40</c:f>
+              <c:f>H1_impact_pipe!$B$38:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
@@ -1003,10 +1015,22 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>H1_impact_pipe!$F$38:$F$40</c:f>
+              <c:f>H1_impact_pipe!$F$38:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>4.87E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0099999999999999E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1153,6 +1177,7 @@
       <c:valAx>
         <c:axId val="299627312"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1476,10 +1501,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>H1_impact_pipe!$B$2:$B$40</c:f>
+              <c:f>H1_impact_pipe!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>128</c:v>
                 </c:pt>
@@ -1592,9 +1617,15 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
@@ -1602,10 +1633,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>H1_impact_pipe!$E$2:$E$40</c:f>
+              <c:f>H1_impact_pipe!$E$2:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>7.0800000000000002E-2</c:v>
                 </c:pt>
@@ -1713,6 +1744,18 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2.93E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.87E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.9599999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2043,9 +2086,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:v>Floods</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -2074,17 +2114,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>H1_impact_pipe!$B$38:$B$40</c:f>
+              <c:f>H1_impact_pipe!$B$38:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
@@ -2092,10 +2138,22 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>H1_impact_pipe!$F$38:$F$40</c:f>
+              <c:f>H1_impact_pipe!$F$38:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>4.87E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0099999999999999E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2242,6 +2300,7 @@
       <c:valAx>
         <c:axId val="299627312"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4682,7 +4741,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4762,7 +4821,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4888,7 +4947,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1128790880"/>
@@ -4950,7 +5009,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1128790400"/>
@@ -4998,7 +5057,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7941,16 +8000,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>169545</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>560070</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>436245</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>217170</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8241,10 +8300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9050,31 +9109,70 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="1">
+      <c r="A38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="5">
         <v>90</v>
       </c>
-      <c r="F38" s="1"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="1">
-        <v>45</v>
-      </c>
-      <c r="F39" s="1"/>
+      <c r="A39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="5">
+        <v>90</v>
+      </c>
+      <c r="E39" s="5">
+        <v>4.87E-2</v>
+      </c>
+      <c r="F39" s="5">
+        <v>4.87E-2</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="5">
+        <v>45</v>
+      </c>
+      <c r="E40" s="5">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="F40" s="5">
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="5">
+        <v>64</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B42" s="5">
         <v>90</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="E42" s="5">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="F42" s="5">
+        <v>5.0099999999999999E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9087,7 +9185,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9924,8 +10022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE41D157-6BBB-47F7-AC96-7DF3592F224F}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9940,18 +10038,18 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -10078,18 +10176,18 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
